--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Resala\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Resala\OneDrive\Desktop\largeScaleDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B8FE47-569A-42C3-96C5-D5FD7C0D7AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0073C33-E0EF-4A8B-9511-35CACD06B4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{950C215E-58B2-499D-BCE7-45C2578D9B8B}"/>
   </bookViews>
@@ -65,10 +65,10 @@
     <t>Physics</t>
   </si>
   <si>
-    <t>Courses</t>
+    <t>Number of students</t>
   </si>
   <si>
-    <t>Number of students</t>
+    <t>Departments</t>
   </si>
 </sst>
 </file>
@@ -104,13 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,17 +118,17 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -267,6 +264,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0E69-4CF7-9053-ED77547C3199}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -287,6 +289,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0E69-4CF7-9053-ED77547C3199}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -307,6 +314,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0E69-4CF7-9053-ED77547C3199}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -327,6 +339,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0E69-4CF7-9053-ED77547C3199}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -347,6 +364,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0E69-4CF7-9053-ED77547C3199}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2954,11 +2976,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71747E8E-B546-4811-9C43-67C487CE110D}" name="CountStudents" displayName="CountStudents" ref="A1:B6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71747E8E-B546-4811-9C43-67C487CE110D}" name="CountStudents" displayName="CountStudents" ref="A1:B6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B6" xr:uid="{71747E8E-B546-4811-9C43-67C487CE110D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7E2F3FA1-6CAB-4430-962E-DB091A03F794}" uniqueName="1" name="Courses" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D3DD13BD-34FE-421F-B934-ADB6D276FB43}" uniqueName="2" name="Number of students" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7E2F3FA1-6CAB-4430-962E-DB091A03F794}" uniqueName="1" name="Departments" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D3DD13BD-34FE-421F-B934-ADB6D276FB43}" uniqueName="2" name="Number of students" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3264,7 +3286,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3275,17 +3297,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>3</v>
       </c>
     </row>
@@ -3293,7 +3315,7 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
     </row>
@@ -3301,7 +3323,7 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>4</v>
       </c>
     </row>
@@ -3309,7 +3331,7 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
     </row>
@@ -3317,7 +3339,7 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
     </row>
